--- a/result.xlsx
+++ b/result.xlsx
@@ -2732,7 +2732,7 @@
         <v>6345.64014</v>
       </c>
       <c r="G8" s="19" t="n">
-        <v>7986.07275</v>
+        <v>7918.84424</v>
       </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="25" t="inlineStr">
@@ -3200,13 +3200,13 @@
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="154" t="n"/>
       <c r="D18" s="17" t="n">
-        <v>1667.51282</v>
+        <v>7918.84424</v>
       </c>
       <c r="E18" s="60" t="n">
-        <v>2113.42163</v>
+        <v>3976.49927</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>3423.42407</v>
+        <v>6323.1001</v>
       </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
@@ -3236,13 +3236,13 @@
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="154" t="n"/>
       <c r="D19" s="17" t="n">
-        <v>1652.95569</v>
+        <v>3196.67334</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>2117.62207</v>
+        <v>3970.01147</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>3436.99438</v>
+        <v>6367.92969</v>
       </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
@@ -3278,13 +3278,13 @@
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="154" t="n"/>
       <c r="D20" s="17" t="n">
-        <v>1651.94165</v>
+        <v>3206.35156</v>
       </c>
       <c r="E20" s="17" t="n">
-        <v>2120.06201</v>
+        <v>3964.19385</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>3423.2561</v>
+        <v>6369.04004</v>
       </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="20" t="n"/>
@@ -3338,7 +3338,7 @@
       <c r="C21" s="154" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="17" t="n">
-        <v>2124.88062</v>
+        <v>3970.7937</v>
       </c>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
@@ -3393,7 +3393,7 @@
       <c r="C22" s="154" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="17" t="n">
-        <v>2121.40576</v>
+        <v>3973.85278</v>
       </c>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="30" t="n"/>
@@ -3437,7 +3437,7 @@
       <c r="C23" s="157" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="68" t="n">
-        <v>2125.88062</v>
+        <v>3974.33472</v>
       </c>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="30" t="n"/>
@@ -3904,7 +3904,7 @@
         <v/>
       </c>
       <c r="D32" s="19" t="n">
-        <v>2130.51611</v>
+        <v>3976.65845</v>
       </c>
       <c r="E32" s="1" t="n"/>
       <c r="F32" s="70" t="inlineStr">
@@ -3913,14 +3913,14 @@
         </is>
       </c>
       <c r="G32" s="17" t="n">
-        <v>2123.34912</v>
+        <v>4118.29199</v>
       </c>
       <c r="H32" s="18">
         <f>E6</f>
         <v/>
       </c>
       <c r="I32" s="19" t="n">
-        <v>2139.41748</v>
+        <v>4008.47217</v>
       </c>
       <c r="J32" s="1" t="n"/>
       <c r="K32" s="93" t="n"/>
@@ -3954,7 +3954,7 @@
         <v/>
       </c>
       <c r="D33" s="19" t="n">
-        <v>2119.68311</v>
+        <v>3981.1311</v>
       </c>
       <c r="E33" s="95" t="n"/>
       <c r="F33" s="70" t="inlineStr">
@@ -3963,14 +3963,14 @@
         </is>
       </c>
       <c r="G33" s="17" t="n">
-        <v>2143.37964</v>
+        <v>4151.83643</v>
       </c>
       <c r="H33" s="18">
         <f>E7</f>
         <v/>
       </c>
       <c r="I33" s="19" t="n">
-        <v>2139.29932</v>
+        <v>4003.12109</v>
       </c>
       <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="n"/>
@@ -4004,7 +4004,7 @@
         <v/>
       </c>
       <c r="D34" s="19" t="n">
-        <v>2123.39355</v>
+        <v>3980.48145</v>
       </c>
       <c r="E34" s="95" t="n"/>
       <c r="F34" s="70" t="inlineStr">
@@ -4013,14 +4013,14 @@
         </is>
       </c>
       <c r="G34" s="17" t="n">
-        <v>2152.11426</v>
+        <v>4123.63281</v>
       </c>
       <c r="H34" s="17">
         <f>E8</f>
         <v/>
       </c>
       <c r="I34" s="19" t="n">
-        <v>2143.64258</v>
+        <v>3998.0293</v>
       </c>
       <c r="J34" s="96" t="n"/>
       <c r="K34" s="93" t="inlineStr">
@@ -4061,7 +4061,7 @@
         <v/>
       </c>
       <c r="D35" s="19" t="n">
-        <v>2124.71436</v>
+        <v>3977.80981</v>
       </c>
       <c r="E35" s="95" t="n"/>
       <c r="F35" s="70" t="inlineStr">
@@ -4070,14 +4070,14 @@
         </is>
       </c>
       <c r="G35" s="17" t="n">
-        <v>2145.56616</v>
+        <v>4081.16724</v>
       </c>
       <c r="H35" s="17">
         <f>E9</f>
         <v/>
       </c>
       <c r="I35" s="19" t="n">
-        <v>2151.02148</v>
+        <v>4009.38916</v>
       </c>
       <c r="J35" s="97" t="n"/>
       <c r="K35" s="1" t="n"/>
@@ -4111,7 +4111,7 @@
         <v/>
       </c>
       <c r="D36" s="19" t="n">
-        <v>2132.18066</v>
+        <v>3985.63599</v>
       </c>
       <c r="E36" s="95" t="n"/>
       <c r="F36" s="70" t="inlineStr">
@@ -4120,14 +4120,14 @@
         </is>
       </c>
       <c r="G36" s="17" t="n">
-        <v>2146.97656</v>
+        <v>4038.60547</v>
       </c>
       <c r="H36" s="17">
         <f>E10</f>
         <v/>
       </c>
       <c r="I36" s="19" t="n">
-        <v>2152.8147</v>
+        <v>4004.58691</v>
       </c>
       <c r="J36" s="32" t="n"/>
       <c r="K36" s="1" t="n"/>
@@ -4161,7 +4161,7 @@
         <v/>
       </c>
       <c r="D37" s="98" t="n">
-        <v>2131.15405</v>
+        <v>3976.89771</v>
       </c>
       <c r="E37" s="95" t="n"/>
       <c r="F37" s="70" t="inlineStr">
@@ -4170,14 +4170,14 @@
         </is>
       </c>
       <c r="G37" s="68" t="n">
-        <v>2143.99829</v>
+        <v>4023.62817</v>
       </c>
       <c r="H37" s="17">
         <f>E11</f>
         <v/>
       </c>
       <c r="I37" s="98" t="n">
-        <v>2149.15674</v>
+        <v>4014.41504</v>
       </c>
       <c r="J37" s="32" t="n"/>
       <c r="K37" s="1" t="n"/>
@@ -4479,14 +4479,14 @@
         </is>
       </c>
       <c r="C45" s="17" t="n">
-        <v>2345.28418</v>
+        <v>4137.77295</v>
       </c>
       <c r="D45" s="18">
         <f>E6</f>
         <v/>
       </c>
       <c r="E45" s="19" t="n">
-        <v>2249.93042</v>
+        <v>4013.59399</v>
       </c>
       <c r="F45" s="1" t="n"/>
       <c r="G45" s="90" t="n"/>
@@ -4528,14 +4528,14 @@
         </is>
       </c>
       <c r="C46" s="17" t="n">
-        <v>2257.76367</v>
+        <v>4008.14136</v>
       </c>
       <c r="D46" s="18">
         <f>E7</f>
         <v/>
       </c>
       <c r="E46" s="19" t="n">
-        <v>2247.69702</v>
+        <v>4037.77905</v>
       </c>
       <c r="F46" s="95" t="n"/>
       <c r="G46" s="70" t="inlineStr">
@@ -4548,7 +4548,7 @@
         <v/>
       </c>
       <c r="I46" s="19" t="n">
-        <v>2145.8208</v>
+        <v>4007.06274</v>
       </c>
       <c r="J46" s="32" t="n"/>
       <c r="K46" s="1" t="n"/>
@@ -4578,14 +4578,14 @@
         </is>
       </c>
       <c r="C47" s="17" t="n">
-        <v>2254.17578</v>
+        <v>3992.24414</v>
       </c>
       <c r="D47" s="17">
         <f>E8</f>
         <v/>
       </c>
       <c r="E47" s="19" t="n">
-        <v>2245.72192</v>
+        <v>4042.10645</v>
       </c>
       <c r="F47" s="95" t="n"/>
       <c r="G47" s="70" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v/>
       </c>
       <c r="I47" s="19" t="n">
-        <v>2197.21948</v>
+        <v>4067.34741</v>
       </c>
       <c r="J47" s="32" t="n"/>
       <c r="K47" s="1" t="n"/>
@@ -4628,14 +4628,14 @@
         </is>
       </c>
       <c r="C48" s="17" t="n">
-        <v>2254.63306</v>
+        <v>3997.30054</v>
       </c>
       <c r="D48" s="17">
         <f>E9</f>
         <v/>
       </c>
       <c r="E48" s="19" t="n">
-        <v>2246.07007</v>
+        <v>4032.22559</v>
       </c>
       <c r="F48" s="95" t="n"/>
       <c r="G48" s="70" t="inlineStr">
@@ -4648,7 +4648,7 @@
         <v/>
       </c>
       <c r="I48" s="19" t="n">
-        <v>2161.62988</v>
+        <v>4041.10425</v>
       </c>
       <c r="J48" s="32" t="n"/>
       <c r="K48" s="1" t="n"/>
@@ -4678,14 +4678,14 @@
         </is>
       </c>
       <c r="C49" s="17" t="n">
-        <v>2258.08936</v>
+        <v>4004.52563</v>
       </c>
       <c r="D49" s="17">
         <f>E10</f>
         <v/>
       </c>
       <c r="E49" s="19" t="n">
-        <v>2248.28784</v>
+        <v>4031.28662</v>
       </c>
       <c r="F49" s="95" t="n"/>
       <c r="G49" s="70" t="inlineStr">
@@ -4698,7 +4698,7 @@
         <v/>
       </c>
       <c r="I49" s="19" t="n">
-        <v>2157.15283</v>
+        <v>4025.96216</v>
       </c>
       <c r="J49" s="32" t="n"/>
       <c r="K49" s="1" t="n"/>
@@ -4728,14 +4728,14 @@
         </is>
       </c>
       <c r="C50" s="68" t="n">
-        <v>2259.04858</v>
+        <v>4008.34204</v>
       </c>
       <c r="D50" s="17">
         <f>E11</f>
         <v/>
       </c>
       <c r="E50" s="98" t="n">
-        <v>2248.20728</v>
+        <v>4029.82593</v>
       </c>
       <c r="F50" s="95" t="n"/>
       <c r="G50" s="70" t="inlineStr">
@@ -4748,7 +4748,7 @@
         <v/>
       </c>
       <c r="I50" s="19" t="n">
-        <v>2154.78784</v>
+        <v>4019.74414</v>
       </c>
       <c r="J50" s="32" t="n"/>
       <c r="K50" s="1" t="n"/>
@@ -4794,7 +4794,7 @@
         <v/>
       </c>
       <c r="I51" s="98" t="n">
-        <v>2159.04248</v>
+        <v>4006.81714</v>
       </c>
       <c r="J51" s="32" t="n"/>
       <c r="K51" s="1" t="n"/>
@@ -5050,7 +5050,7 @@
     <row r="58" ht="18.75" customHeight="1" s="153">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="70" t="n">
-        <v>2125.677</v>
+        <v>4000.56665</v>
       </c>
       <c r="C58" s="18">
         <f>E6</f>
@@ -5068,7 +5068,7 @@
         <v/>
       </c>
       <c r="H58" s="127" t="n">
-        <v>2174.78784</v>
+        <v>3974.09351</v>
       </c>
       <c r="I58" s="1" t="n"/>
       <c r="J58" s="128" t="n"/>
@@ -5102,7 +5102,7 @@
     <row r="59" ht="16.5" customHeight="1" s="153">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="70" t="n">
-        <v>2127.39233</v>
+        <v>3974.52197</v>
       </c>
       <c r="C59" s="18">
         <f>E7</f>
@@ -5120,7 +5120,7 @@
         <v/>
       </c>
       <c r="H59" s="127" t="n">
-        <v>2131.73462</v>
+        <v>3971.22656</v>
       </c>
       <c r="I59" s="1" t="n"/>
       <c r="J59" s="70" t="inlineStr">
@@ -5156,7 +5156,7 @@
     <row r="60" ht="16.5" customHeight="1" s="153">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="70" t="n">
-        <v>2124.28931</v>
+        <v>3965.91357</v>
       </c>
       <c r="C60" s="17">
         <f>E8</f>
@@ -5174,7 +5174,7 @@
         <v/>
       </c>
       <c r="H60" s="133" t="n">
-        <v>2130.66528</v>
+        <v>3985.41211</v>
       </c>
       <c r="I60" s="1" t="n"/>
       <c r="J60" s="70" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="61" ht="16.5" customHeight="1" s="153">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="70" t="n">
-        <v>2124.76978</v>
+        <v>3977.01001</v>
       </c>
       <c r="C61" s="17">
         <f>E9</f>
@@ -5228,7 +5228,7 @@
         <v/>
       </c>
       <c r="H61" s="134" t="n">
-        <v>2129.38135</v>
+        <v>3980.64282</v>
       </c>
       <c r="I61" s="1" t="n"/>
       <c r="J61" s="70" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="62" ht="16.5" customHeight="1" s="153">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="70" t="n">
-        <v>2124.60571</v>
+        <v>3965.2915</v>
       </c>
       <c r="C62" s="17">
         <f>E10</f>
@@ -5282,7 +5282,7 @@
         <v/>
       </c>
       <c r="H62" s="133" t="n">
-        <v>2117.20605</v>
+        <v>3978.14233</v>
       </c>
       <c r="I62" s="1" t="n"/>
       <c r="J62" s="70" t="inlineStr">
@@ -5318,7 +5318,7 @@
     <row r="63" ht="16.5" customHeight="1" s="153">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="70" t="n">
-        <v>2124.48999</v>
+        <v>3970.6394</v>
       </c>
       <c r="C63" s="19">
         <f>E11</f>
@@ -5336,7 +5336,7 @@
         <v/>
       </c>
       <c r="H63" s="135" t="n">
-        <v>2126.79321</v>
+        <v>3985.56934</v>
       </c>
       <c r="I63" s="1" t="n"/>
       <c r="J63" s="70" t="inlineStr">

--- a/result.xlsx
+++ b/result.xlsx
@@ -2732,7 +2732,7 @@
         <v>6345.64014</v>
       </c>
       <c r="G8" s="19" t="n">
-        <v>7918.84424</v>
+        <v>7986.07275</v>
       </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="25" t="inlineStr">
@@ -3200,7 +3200,7 @@
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="154" t="n"/>
       <c r="D18" s="17" t="n">
-        <v>7918.84424</v>
+        <v>3199.53296</v>
       </c>
       <c r="E18" s="60" t="n">
         <v>3976.49927</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20148" windowHeight="8400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20148" windowHeight="7955" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -3410,8 +3410,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6296296296296" defaultRowHeight="15" customHeight="1"/>
@@ -3440,7 +3440,7 @@
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CALCULATION OF VALIDATION OF Imidocarb Dipropionate in Imidofarm  </t>
+          <t>CALCULATION OF VALIDATION OF CALCULATION OF VALIDATION OF  VALNEMULIN HCL</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
